--- a/gains/2021-02-24.xlsx
+++ b/gains/2021-02-24.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stuff\code\Proj\goodmorning\gains\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
   <si>
     <t>Ticker</t>
   </si>
@@ -34,133 +39,163 @@
     <t>Market Cap</t>
   </si>
   <si>
-    <t>SLDB</t>
-  </si>
-  <si>
-    <t>41.78%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drug Manufacturers - Specialty Generic </t>
-  </si>
-  <si>
-    <t>Solid Biosciences Inc.</t>
+    <t>GME</t>
+  </si>
+  <si>
+    <t>103.94%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialty Retail </t>
+  </si>
+  <si>
+    <t>GameStop Corp.</t>
   </si>
   <si>
     <t xml:space="preserve"> USA </t>
   </si>
   <si>
-    <t xml:space="preserve"> 585.37M</t>
-  </si>
-  <si>
-    <t>TMST</t>
-  </si>
-  <si>
-    <t>26.83%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steel </t>
-  </si>
-  <si>
-    <t>TimkenSteel Corporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 340.85M</t>
-  </si>
-  <si>
-    <t>CTIB</t>
-  </si>
-  <si>
-    <t>24.05%</t>
+    <t xml:space="preserve"> 6.41B</t>
+  </si>
+  <si>
+    <t>SYPR</t>
+  </si>
+  <si>
+    <t>90.23%</t>
   </si>
   <si>
     <t xml:space="preserve">Auto Parts </t>
   </si>
   <si>
-    <t>Yunhong CTI Ltd.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16.76M</t>
-  </si>
-  <si>
-    <t>ARD</t>
-  </si>
-  <si>
-    <t>21.52%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Packaging Containers </t>
-  </si>
-  <si>
-    <t>Ardagh Group S.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Luxembourg </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.57B</t>
-  </si>
-  <si>
-    <t>BRPA</t>
-  </si>
-  <si>
-    <t>20.94%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shell Companies </t>
-  </si>
-  <si>
-    <t>Big Rock Partners Acquisition Corp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 109.03M</t>
-  </si>
-  <si>
-    <t>SNSS</t>
-  </si>
-  <si>
-    <t>20.22%</t>
+    <t>Sypris Solutions, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96.70M</t>
+  </si>
+  <si>
+    <t>KOSS</t>
+  </si>
+  <si>
+    <t>54.96%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumer Electronics </t>
+  </si>
+  <si>
+    <t>Koss Corporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 142.36M</t>
+  </si>
+  <si>
+    <t>IMNM</t>
+  </si>
+  <si>
+    <t>51.67%</t>
   </si>
   <si>
     <t xml:space="preserve">Biotechnology </t>
   </si>
   <si>
-    <t>Sunesis Pharmaceuticals, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 79.86M</t>
-  </si>
-  <si>
-    <t>FRD</t>
-  </si>
-  <si>
-    <t>20.11%</t>
-  </si>
-  <si>
-    <t>Friedman Industries, Incorporated</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 61.59M</t>
-  </si>
-  <si>
-    <t>SCX</t>
-  </si>
-  <si>
-    <t>18.17%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tools Accessories </t>
-  </si>
-  <si>
-    <t>The L.S. Starrett Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 49.52M</t>
+    <t>Immunome, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 467.86M</t>
+  </si>
+  <si>
+    <t>EXPR</t>
+  </si>
+  <si>
+    <t>40.69%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apparel Retail </t>
+  </si>
+  <si>
+    <t>Express, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 219.96M</t>
+  </si>
+  <si>
+    <t>FSR</t>
+  </si>
+  <si>
+    <t>38.61%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto Manufacturers </t>
+  </si>
+  <si>
+    <t>Fisker Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.31B</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>24.41%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security Protection Services </t>
+  </si>
+  <si>
+    <t>NL Industries, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 304.69M</t>
+  </si>
+  <si>
+    <t>XENE</t>
+  </si>
+  <si>
+    <t>13.61%</t>
+  </si>
+  <si>
+    <t>Xenon Pharmaceuticals Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Canada </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 622.93M</t>
+  </si>
+  <si>
+    <t>RRD</t>
+  </si>
+  <si>
+    <t>32.08%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialty Business Services </t>
+  </si>
+  <si>
+    <t>R. R. Donnelley &amp;amp; Sons Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 209.38M</t>
+  </si>
+  <si>
+    <t>REI</t>
+  </si>
+  <si>
+    <t>31.07%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil Gas E&amp;amp;P </t>
+  </si>
+  <si>
+    <t>Ring Energy, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 219.46M</t>
   </si>
   <si>
     <t>ACIA</t>
   </si>
   <si>
-    <t>-0.07%</t>
+    <t>0.06%</t>
   </si>
   <si>
     <t xml:space="preserve">Communication Equipment </t>
@@ -172,98 +207,107 @@
     <t xml:space="preserve"> 4.89B</t>
   </si>
   <si>
-    <t>PMBC</t>
-  </si>
-  <si>
-    <t>1.10%</t>
+    <t>WAL</t>
+  </si>
+  <si>
+    <t>4.33%</t>
   </si>
   <si>
     <t xml:space="preserve">Banks - Regional </t>
   </si>
   <si>
-    <t>Pacific Mercantile Bancorp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 168.26M</t>
-  </si>
-  <si>
-    <t>DWSN</t>
-  </si>
-  <si>
-    <t>3.38%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil Gas Equipment Services </t>
-  </si>
-  <si>
-    <t>Dawson Geophysical Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 77.08M</t>
-  </si>
-  <si>
-    <t>PKW</t>
-  </si>
-  <si>
-    <t>0.08%</t>
+    <t>Western Alliance Bancorporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.25B</t>
+  </si>
+  <si>
+    <t>CBMB</t>
+  </si>
+  <si>
+    <t>-1.95%</t>
+  </si>
+  <si>
+    <t>CBM Bancorp, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 51.47M</t>
+  </si>
+  <si>
+    <t>CELC</t>
+  </si>
+  <si>
+    <t>-8.59%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnostics Research </t>
+  </si>
+  <si>
+    <t>Celcuity Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 138.38M</t>
+  </si>
+  <si>
+    <t>QAT</t>
+  </si>
+  <si>
+    <t>-2.53%</t>
   </si>
   <si>
     <t xml:space="preserve">Exchange Traded Fund </t>
   </si>
   <si>
-    <t>Invesco BuyBack Achievers ETF</t>
+    <t>iShares MSCI Qatar ETF</t>
   </si>
   <si>
     <t xml:space="preserve"> -</t>
   </si>
   <si>
-    <t>AAP</t>
-  </si>
-  <si>
-    <t>-0.90%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specialty Retail </t>
-  </si>
-  <si>
-    <t>Advance Auto Parts, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11.38B</t>
-  </si>
-  <si>
-    <t>AAN</t>
-  </si>
-  <si>
-    <t>-6.65%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rental Leasing Services </t>
-  </si>
-  <si>
-    <t>The Aaron's Company, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 683.99M</t>
-  </si>
-  <si>
-    <t>ZTS</t>
-  </si>
-  <si>
-    <t>-0.40%</t>
-  </si>
-  <si>
-    <t>Zoetis Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 79.57B</t>
+    <t>AEO</t>
+  </si>
+  <si>
+    <t>4.50%</t>
+  </si>
+  <si>
+    <t>American Eagle Outfitters, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.37B</t>
+  </si>
+  <si>
+    <t>AVA</t>
+  </si>
+  <si>
+    <t>1.52%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilities - Diversified </t>
+  </si>
+  <si>
+    <t>Avista Corporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.67B</t>
+  </si>
+  <si>
+    <t>SNSE</t>
+  </si>
+  <si>
+    <t>-4.65%</t>
+  </si>
+  <si>
+    <t>Sensei Biotherapeutics, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 502.03M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +361,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -363,7 +415,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,9 +447,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,6 +482,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -604,22 +658,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -659,7 +715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -679,7 +735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -699,7 +755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -713,310 +769,310 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
